--- a/Scratch work july 2017.xlsx
+++ b/Scratch work july 2017.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="83" windowWidth="12090" windowHeight="8453"/>
+    <workbookView xWindow="480" yWindow="80" windowWidth="12090" windowHeight="8450"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12,11 +12,12 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="39">
   <si>
     <t>ip = 192.168.11.222</t>
   </si>
@@ -127,6 +128,12 @@
   </si>
   <si>
     <t>a "grouping bucket" is the value of the grouping axes for a packet</t>
+  </si>
+  <si>
+    <t>axis</t>
+  </si>
+  <si>
+    <t>list of axes</t>
   </si>
 </sst>
 </file>
@@ -471,32 +478,32 @@
   <dimension ref="A1:G41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
         <v>14</v>
       </c>
@@ -504,12 +511,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="D9" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B11" t="s">
         <v>18</v>
       </c>
@@ -517,12 +524,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="F12" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B13" t="s">
         <v>22</v>
       </c>
@@ -530,7 +537,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C14" s="1" t="s">
         <v>35</v>
       </c>
@@ -538,7 +545,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="D15" t="s">
         <v>13</v>
       </c>
@@ -546,37 +553,37 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="D16" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.35">
       <c r="D17" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.35">
       <c r="F18" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.35">
       <c r="F19" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.35">
       <c r="C21" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.35">
       <c r="D22" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.35">
       <c r="D23" t="s">
         <v>9</v>
       </c>
@@ -584,83 +591,89 @@
         <v>32</v>
       </c>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.35">
       <c r="C24" t="s">
         <v>1</v>
       </c>
       <c r="G24" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.45">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.35">
       <c r="D25" t="s">
         <v>8</v>
       </c>
-      <c r="G25" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="G27" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.45">
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="G26" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B29" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="G29" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.35">
       <c r="C30" s="1" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="G30" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.35">
       <c r="D31" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="32" spans="2:7" x14ac:dyDescent="0.35">
       <c r="C32" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="G32" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.35">
       <c r="D33" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="34" spans="2:4" x14ac:dyDescent="0.35">
       <c r="D34" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="36" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B36" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="37" spans="2:4" x14ac:dyDescent="0.35">
       <c r="C37" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="38" spans="2:4" x14ac:dyDescent="0.35">
       <c r="D38" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="39" spans="2:4" x14ac:dyDescent="0.35">
       <c r="C39" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="40" spans="2:4" x14ac:dyDescent="0.35">
       <c r="D40" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="41" spans="2:4" x14ac:dyDescent="0.35">
       <c r="D41" t="s">
         <v>4</v>
       </c>
@@ -676,7 +689,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -688,7 +701,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Scratch work july 2017.xlsx
+++ b/Scratch work july 2017.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="80" windowWidth="12090" windowHeight="8450"/>
+    <workbookView xWindow="480" yWindow="83" windowWidth="12090" windowHeight="8453"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12,12 +12,11 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="42">
   <si>
     <t>ip = 192.168.11.222</t>
   </si>
@@ -79,9 +78,6 @@
     <t>question: when axes change order, and expanded and un-expanded things get combined, should the new blob be expanded or not?</t>
   </si>
   <si>
-    <t>i say yes (we'll see how that scales; maybe it should be a user preference check box)</t>
-  </si>
-  <si>
     <t>proto</t>
   </si>
   <si>
@@ -115,9 +111,6 @@
     <t>apply that group/ungroup operation across all other items fo the same type</t>
   </si>
   <si>
-    <t>based on the above, what are the data structures?</t>
-  </si>
-  <si>
     <t>the main list is a list of packets</t>
   </si>
   <si>
@@ -133,7 +126,22 @@
     <t>axis</t>
   </si>
   <si>
-    <t>list of axes</t>
+    <t>i say expanded (we'll see how that scales; maybe it should be a user preference check box)</t>
+  </si>
+  <si>
+    <t>list of axes - order is hierarchy of tree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    flag for whether active or not</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    list of un-grouped items on that axis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    these should be formula based properties, so they get evaluated only when wpf does grouping</t>
+  </si>
+  <si>
+    <t>what are the data structures?</t>
   </si>
 </sst>
 </file>
@@ -478,84 +486,84 @@
   <dimension ref="A1:G41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
         <v>14</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="D9" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B11" t="s">
         <v>18</v>
       </c>
       <c r="F11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="F12" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G12" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B13" t="s">
-        <v>22</v>
-      </c>
-      <c r="F13" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+        <v>21</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="C14" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F14" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+        <v>33</v>
+      </c>
+      <c r="G14" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="D15" t="s">
         <v>13</v>
       </c>
-      <c r="F15" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="D16" t="s">
         <v>12</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.35">
@@ -563,20 +571,24 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="F18" t="s">
-        <v>30</v>
-      </c>
-    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.35"/>
     <row r="19" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="F19" t="s">
+      <c r="G19" t="s">
         <v>31</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="G20" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.35">
       <c r="C21" t="s">
         <v>0</v>
       </c>
+      <c r="G21" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.35">
       <c r="D22" t="s">
@@ -587,16 +599,13 @@
       <c r="D23" t="s">
         <v>9</v>
       </c>
-      <c r="F23" t="s">
-        <v>32</v>
-      </c>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.35">
       <c r="C24" t="s">
         <v>1</v>
       </c>
       <c r="G24" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.35">
@@ -604,76 +613,90 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="G26" t="s">
-        <v>38</v>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.35"/>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="F27" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="F28" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B29" t="s">
-        <v>23</v>
-      </c>
-      <c r="G29" t="s">
-        <v>33</v>
+        <v>22</v>
+      </c>
+      <c r="F29" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.35">
       <c r="C30" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="G30" t="s">
-        <v>34</v>
+        <v>33</v>
+      </c>
+      <c r="F30" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.35">
       <c r="D31" t="s">
         <v>7</v>
       </c>
+      <c r="F31" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.35">
       <c r="C32" t="s">
         <v>0</v>
       </c>
-      <c r="G32" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.35">
       <c r="D33" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:6" x14ac:dyDescent="0.35">
       <c r="D34" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="F34" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="F35" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B36" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.35">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.35">
       <c r="C37" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.35">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.35">
       <c r="D38" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:6" x14ac:dyDescent="0.35">
       <c r="C39" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:6" x14ac:dyDescent="0.35">
       <c r="D40" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:6" x14ac:dyDescent="0.35">
       <c r="D41" t="s">
         <v>4</v>
       </c>
@@ -689,7 +712,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -701,7 +724,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
